--- a/Running projects/Imtiaz Korangi (Labour RAtes)/Demand/011-14-12-24_ISM Korangi PVC Fittings.XLSX
+++ b/Running projects/Imtiaz Korangi (Labour RAtes)/Demand/011-14-12-24_ISM Korangi PVC Fittings.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Imtiaz Korangi (Labour RAtes)\Demand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95D68EF-BC7F-4EE3-BFE4-54D71CBD7BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749491C-295A-4DED-BB0D-A9C71EB634A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Description</t>
   </si>
@@ -53,9 +53,6 @@
     <t>3"</t>
   </si>
   <si>
-    <t>Date: 14/12/2024</t>
-  </si>
-  <si>
     <t>Clip</t>
   </si>
   <si>
@@ -69,6 +66,27 @@
   </si>
   <si>
     <t>011_ Demand for PVC Drainage Fittings</t>
+  </si>
+  <si>
+    <t>PVC Pipe</t>
+  </si>
+  <si>
+    <t>Rft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6" </t>
+  </si>
+  <si>
+    <t>Y Tee</t>
+  </si>
+  <si>
+    <t>SS Plug</t>
+  </si>
+  <si>
+    <t>6"</t>
+  </si>
+  <si>
+    <t>Date: 16/12/2024</t>
   </si>
 </sst>
 </file>
@@ -521,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F95"/>
+  <dimension ref="B1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -547,7 +565,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="1"/>
       <c r="E2" s="13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F2" s="13"/>
     </row>
@@ -559,7 +577,7 @@
     </row>
     <row r="4" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -583,12 +601,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
@@ -600,12 +618,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -617,12 +635,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
@@ -634,12 +652,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
@@ -651,90 +669,150 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6">
+        <v>80</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
@@ -1211,55 +1289,6 @@
       <c r="D88" s="11"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
